--- a/biology/Botanique/Polypodium_interjectum/Polypodium_interjectum.xlsx
+++ b/biology/Botanique/Polypodium_interjectum/Polypodium_interjectum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polypode intermédiaire
 Le Polypode intermédiaire (Polypodium interjectum) est une fougère de la famille des Polypodiaceae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce polypode se distingue de son cousin le Polypodium vulgare par ses pennes plus larges et relativement pointues, ainsi que ses sores plus ou moins elliptiques.
 </t>
@@ -543,9 +557,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèce cosmopolite , elle est notamment présente en Europe de l'Ouest[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Espèce cosmopolite , elle est notamment présente en Europe de l'Ouest.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Confusions possibles</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'identification certaine nécessite l'observation avec une forte loupe des paraphyses entre les sporanges (elles n'existent que chez Polypodium cambricum) et des spores (plus petits chez Polypodium vulgare)[2].
-P. interjectum est une espèce allohexaploïde qui s'est formée par l'association des génomes de P. cambricum diploïde et P. vulgare allotétraploïde (formé à partir de deux espèces américaines). Les difficultés de détermination et la fréquence des hybrides expliquent que ces plantes sont parfois traitées comme trois sous-espèces de P. vulgare[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'identification certaine nécessite l'observation avec une forte loupe des paraphyses entre les sporanges (elles n'existent que chez Polypodium cambricum) et des spores (plus petits chez Polypodium vulgare).
+P. interjectum est une espèce allohexaploïde qui s'est formée par l'association des génomes de P. cambricum diploïde et P. vulgare allotétraploïde (formé à partir de deux espèces américaines). Les difficultés de détermination et la fréquence des hybrides expliquent que ces plantes sont parfois traitées comme trois sous-espèces de P. vulgare.
 </t>
         </is>
       </c>
